--- a/docss/trend/bulgaria/E_huntington.xlsx
+++ b/docss/trend/bulgaria/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\bulgaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\bulgaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,126 +1581,126 @@
       <c r="A2">
         <v>2005</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.4185103364288807E-2</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
-        <v>4.6313444152474403E-2</v>
+      <c r="D2">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
-      <c r="B3" s="7">
-        <v>1.7874802462756634E-2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1.7112592235207558E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.0254068076610565E-2</v>
+      <c r="B3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
-      <c r="B4" s="7">
-        <v>3.620956651866436E-2</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>7.0403771474957466E-2</v>
+      <c r="D4">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
-      <c r="B5" s="7">
-        <v>3.8078051060438156E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>5.427163653075695E-2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.0830223336815834E-2</v>
+      <c r="B5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
-      <c r="B6" s="7">
-        <v>5.7637709192931652E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>7.010771706700325E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4.8621274530887604E-2</v>
+      <c r="B6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
-      <c r="B7" s="7">
-        <v>5.0841848365962505E-2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>5.0394820049405098E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5.407242476940155E-2</v>
+      <c r="B7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
-      <c r="B8" s="7">
-        <v>9.4981733709573746E-3</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>1.753346249461174E-2</v>
+      <c r="D8">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
-      <c r="B9" s="7">
-        <v>4.409356601536274E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>7.0708571001887321E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1.7580378800630569E-2</v>
+      <c r="B9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10" s="7">
-        <v>2.4256390519440174E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2.4453207850456238E-2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2.2529879584908485E-2</v>
+      <c r="B10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.3E-2</v>
       </c>
     </row>
   </sheetData>
